--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.983266101635051</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.4452838945569346</v>
+        <v>-0.4452838945569332</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2205325443381027</v>
@@ -649,7 +649,7 @@
         <v>-0.1012246177288387</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.04667773688918904</v>
+        <v>-0.04667773688918891</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.782267901732871</v>
+        <v>-3.947632851795146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.706237265943368</v>
+        <v>-2.511268705853283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.517874870285085</v>
+        <v>-4.221449865816266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.592761000450647</v>
+        <v>-2.795625894879295</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5286104657881739</v>
+        <v>-0.5094423939738869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3176914147039311</v>
+        <v>-0.3130980832560785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3940929593669661</v>
+        <v>-0.3613921459814708</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2411287220380762</v>
+        <v>-0.2584970305184772</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8675925612226187</v>
+        <v>0.797861172606224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.666062409533632</v>
+        <v>2.814829153752412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.173569993591141</v>
+        <v>2.019049682639193</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.938809289659541</v>
+        <v>1.90814221920917</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1827943526054942</v>
+        <v>0.1833395973211472</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5254849513018298</v>
+        <v>0.543292849952546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2629028929764874</v>
+        <v>0.2467003651762058</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2532365809550764</v>
+        <v>0.2386633416601098</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.3116436214396695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.7008161127559711</v>
+        <v>-0.7008161127559684</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.228418819279459</v>
@@ -749,7 +749,7 @@
         <v>-0.03961535801306722</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08498344789366151</v>
+        <v>-0.08498344789366119</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9853528480306203</v>
+        <v>-0.7388488305898724</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.840677190640798</v>
+        <v>-0.8400724918646491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.875588322097087</v>
+        <v>-2.532817144330364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.772898104599229</v>
+        <v>-3.02026053681978</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1418678715431231</v>
+        <v>-0.1247014898375835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1069538859916097</v>
+        <v>-0.1140404306110896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3217968685168843</v>
+        <v>-0.2951448281558852</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2887498563751237</v>
+        <v>-0.313557320360754</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.041188228700933</v>
+        <v>3.774608620498871</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.858032313932303</v>
+        <v>3.835631892156453</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.031455840941585</v>
+        <v>2.219682813539638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.165756791769865</v>
+        <v>1.411034086765054</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.792236757856748</v>
+        <v>0.7153855818794851</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7629815191451156</v>
+        <v>0.7055085801915677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3159154000969573</v>
+        <v>0.3379553821245732</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1702115095450928</v>
+        <v>0.1962023754705802</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.35455783838009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.951361259177234</v>
+        <v>-1.951361259177235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3007494194550123</v>
@@ -849,7 +849,7 @@
         <v>-0.147699892317961</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2497131435861743</v>
+        <v>-0.2497131435861744</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.002375310436897</v>
+        <v>-1.196736983039618</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4992287652235619</v>
+        <v>-0.5674496641582847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.402624213247003</v>
+        <v>-4.63989439750498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.319302788264457</v>
+        <v>-4.25566309390749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1922549761073566</v>
+        <v>-0.2081158829858997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0685851669920173</v>
+        <v>-0.07688598293013944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4101622800224742</v>
+        <v>-0.4091020499173149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4517988492290402</v>
+        <v>-0.4527915317339267</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.686578622145121</v>
+        <v>3.724493112233906</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.90910612116538</v>
+        <v>4.766752586423525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.380720278741328</v>
+        <v>1.609206662594973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2514859812405737</v>
+        <v>0.2681432499647474</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.026977439827433</v>
+        <v>1.058564981300562</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9619296612560135</v>
+        <v>0.923808207406377</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1907963364525053</v>
+        <v>0.2365479800210693</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0447127658489623</v>
+        <v>0.04470630308639591</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.3024181373090809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.842912106308454</v>
+        <v>-1.842912106308452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06052959451040891</v>
@@ -949,7 +949,7 @@
         <v>0.04159351840881655</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.200309326006687</v>
+        <v>-0.2003093260066867</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.73025046183383</v>
+        <v>-1.795137932930446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.122722177236379</v>
+        <v>-2.236615519435858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.14369489603178</v>
+        <v>-1.835972237773529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.779624893278608</v>
+        <v>-3.730410752175564</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.284995201077324</v>
+        <v>-0.2774557108834428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2028384481613168</v>
+        <v>-0.2050249118461757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2745896806522313</v>
+        <v>-0.2275213587239158</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3574988891274991</v>
+        <v>-0.3648526017143959</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.1283377007161</v>
+        <v>2.314440772683363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.286922150807682</v>
+        <v>3.272312488905381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.627754944705992</v>
+        <v>2.693026897132634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1849905899443807</v>
+        <v>0.1835120583969607</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4935521871891377</v>
+        <v>0.5229990820032141</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4096232234551663</v>
+        <v>0.4302054936492073</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4318307154115212</v>
+        <v>0.4423657547397247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02348960337469044</v>
+        <v>0.01956275048413024</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6526985893170212</v>
+        <v>-0.5814997343520362</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1834459097895089</v>
+        <v>-0.1537993836081294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.936364921036709</v>
+        <v>-1.905895089359156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.342635373790185</v>
+        <v>-2.259855139272341</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1073510211757825</v>
+        <v>-0.09326028792863239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02255910205759654</v>
+        <v>-0.02058530903070131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2161362580276692</v>
+        <v>-0.206684201708897</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2527195879614682</v>
+        <v>-0.245550883719179</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.63803353328432</v>
+        <v>1.588627785117399</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.422386333042539</v>
+        <v>2.494887549381024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8514689686293101</v>
+        <v>0.7343947300803888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.2513995708748614</v>
+        <v>-0.06803537130833497</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3251995681888217</v>
+        <v>0.3185870801638073</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3718973803882649</v>
+        <v>0.3857012158694349</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1114859587461387</v>
+        <v>0.09578815720499048</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03295490845542912</v>
+        <v>-0.01667467661320104</v>
       </c>
     </row>
     <row r="19">
